--- a/static/assessment-results.xlsx
+++ b/static/assessment-results.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE9E8CA-7544-4CCE-9DF1-9D0357DACF9F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8ECED2-3717-4E17-8771-A944A65FD74D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{13FE1660-FF3F-4AAD-AD17-F58810B5493C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" activeTab="1" xr2:uid="{13FE1660-FF3F-4AAD-AD17-F58810B5493C}"/>
   </bookViews>
   <sheets>
-    <sheet name="questions" sheetId="3" r:id="rId1"/>
-    <sheet name="scores" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="qs" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="responses" sheetId="1" r:id="rId3"/>
+    <sheet name="scores" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
   <si>
     <t>question</t>
   </si>
@@ -52,16 +54,10 @@
     <t>person</t>
   </si>
   <si>
-    <t>answer</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>correct</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -85,13 +81,43 @@
     <t>grade</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>answer-pre</t>
+  </si>
+  <si>
+    <t>correct-pre</t>
+  </si>
+  <si>
+    <t>answer-post</t>
+  </si>
+  <si>
+    <t>correct-post</t>
+  </si>
+  <si>
+    <t>Average of correct-pre</t>
+  </si>
+  <si>
+    <t>Average of correct-post</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,13 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,63 +185,44 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[assessment-results.xlsx]qs!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>proportion correct</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -222,22 +230,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>questions!$J$3</c:f>
+              <c:f>qs!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>correct</c:v>
+                  <c:v>Average of correct-pre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -245,12 +253,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>qs!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>questions!$J$4:$J$7</c:f>
+              <c:f>qs!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.8125</c:v>
                 </c:pt>
@@ -268,7 +299,81 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D37-4964-BAAC-0596D442C3EE}"/>
+              <c16:uniqueId val="{00000000-6D0A-4B6C-8EBB-11C2CB730DC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qs!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of correct-post</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>qs!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>qs!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D0A-4B6C-8EBB-11C2CB730DC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -282,16 +387,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="286302912"/>
-        <c:axId val="286299960"/>
+        <c:axId val="427468608"/>
+        <c:axId val="427469264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286302912"/>
+        <c:axId val="427468608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -328,7 +434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286299960"/>
+        <c:crossAx val="427469264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -336,7 +442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286299960"/>
+        <c:axId val="427469264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,7 +493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286302912"/>
+        <c:crossAx val="427468608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -399,6 +505,463 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E787-431F-9F6A-6CB206EB897B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>post</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E787-431F-9F6A-6CB206EB897B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="439942352"/>
+        <c:axId val="439943336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="439942352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439943336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439943336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439942352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -443,7 +1006,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -824,6 +1387,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1830,27 +2433,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BDC70B6-0F32-4F1A-87AA-3293DF3FED2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD212D53-B20B-4934-9E13-D1545C2B93B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,6 +2978,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF61702-F597-4EA4-9801-4AABFBAACA83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1915,7 +3062,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anna" refreshedDate="43396.361966319448" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="66" xr:uid="{C3C4EF7D-854E-4A51-8E34-5B80F4045A04}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:D1048576" sheet="responses"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="person" numFmtId="0">
@@ -1967,6 +3114,67 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anna" refreshedDate="43398.349410300929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="67" xr:uid="{27D18684-E413-426F-AC0C-680B9517C086}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F1048576" sheet="responses"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="person" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16" count="17">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="question" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="answer-pre" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="correct-pre" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
+        <n v="1"/>
+        <n v="0"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="answer-post" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="correct-post" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="66">
   <r>
@@ -2368,10 +3576,551 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="b"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <s v="b"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="1"/>
+    <s v="b"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+    <s v="b"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+    <s v="a"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="a"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+    <s v="b"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <s v="a"/>
+    <x v="1"/>
+    <s v="b"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="a"/>
+    <x v="1"/>
+    <s v="b"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="a"/>
+    <x v="1"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <s v="a"/>
+    <x v="1"/>
+    <s v="b"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <s v="NA"/>
+    <x v="1"/>
+    <s v="b"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <s v="c"/>
+    <x v="1"/>
+    <s v="b"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="a"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="b"/>
+    <x v="1"/>
+    <s v="a"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <s v="a"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <s v="d"/>
+    <x v="1"/>
+    <s v="c"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+    <s v="d"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{284F3C7C-1ABC-4D1C-9A0A-B9B61D2F185C}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FDADDD3-E0A2-40D8-BD0B-937A4185D9C9}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -2384,7 +4133,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
+    <pivotField dataField="1" showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -2392,6 +4141,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -2417,33 +4168,25 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="3"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
     </i>
-    <i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Average of correct" fld="3" subtotal="average" baseField="1" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Average of correct-pre" fld="3" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Average of correct-post" fld="5" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -2451,60 +4194,9 @@
     </chartFormat>
     <chartFormat chart="1" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2523,7 +4215,125 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{643F778C-463A-4B08-A25D-887543112720}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F2085C4-EB59-4978-A478-5165FFB6D1A1}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of correct-pre" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of correct-post" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{643F778C-463A-4B08-A25D-887543112720}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -2946,164 +4756,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F2EC9E-BA3C-457C-9393-FBC9F42149E1}">
-  <dimension ref="A3:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6282C17B-192D-4BC5-BC5A-5394C5306C3B}">
+  <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>0.8125</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>0.1875</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="B9" s="3">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P21" t="s">
-        <v>16</v>
+      <c r="C9" s="3">
+        <v>0.640625</v>
       </c>
     </row>
   </sheetData>
@@ -3113,6 +4852,1766 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D617A9D1-57A2-4464-A51A-7BE358750B24}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4">
+        <f>AVERAGE(B4:B19)</f>
+        <v>0.515625</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF($B$4:$B$19, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF($C$4:$C$19, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(C4:C19)</f>
+        <v>0.640625</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF($B$4:$B$19, 0.25)</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF($C$4:$C$19, 0.25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF($B$4:$B$19, 0.5)</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF($C$4:$C$19, 0.5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF($B$4:$B$19, 0.75)</f>
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF($C$4:$C$19, 0.75)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF($B$4:$B$19, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF($C$4:$C$19, 1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.515625</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.640625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BAC29A-10FC-4162-9923-7B812E7DB352}">
+  <dimension ref="A1:F65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>IF(E2="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>IF(C3="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="0">IF(E3="c",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>IF(C4="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>IF(C5="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>IF(C6="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>IF(C7="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>IF(C8="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>IF(C9="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>IF(C10="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f>IF(C11="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f>IF(C12="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>IF(C13="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>IF(C14="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f>IF(C15="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f>IF(C16="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>IF(C17="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f>IF(C18="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>IF(E18="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f>IF(C19="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F33" si="1">IF(E19="a",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>IF(C20="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f>IF(C21="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>IF(C22="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f>IF(C23="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f>IF(C24="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f>IF(C25="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>IF(C26="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <f>IF(C27="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f>IF(C28="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>IF(C29="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f>IF(C30="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>IF(C31="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <f>IF(C32="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>IF(C33="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>IF(C34="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>IF(E34="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <f>IF(C35="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F49" si="2">IF(E35="b",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f>IF(C36="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <f>IF(C37="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f>IF(C38="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <f>IF(C39="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f>IF(C40="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <f>IF(C41="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f>IF(C42="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f>IF(C43="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <f>IF(C44="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f>IF(C45="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <f>IF(C46="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <f>IF(C47="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <f>IF(C48="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <f>IF(C49="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f>IF(C50="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <f>IF(E50="c",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f>IF(C51="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F65" si="3">IF(E51="c",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <f>IF(C52="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f>IF(C53="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <f>IF(C54="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <f>IF(C55="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <f>IF(C56="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <f>IF(C57="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f>IF(C58="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f>IF(C59="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <f>IF(C60="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <f>IF(C61="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <f>IF(C62="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <f>IF(C63="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <f>IF(C64="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <f>IF(C65="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F66">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E57421-6A88-47D8-AEAF-9CD0E08B5C12}">
   <dimension ref="A3:I22"/>
   <sheetViews>
@@ -3131,33 +6630,33 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3433,7 +6932,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3442,7 +6941,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -3459,996 +6958,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BAC29A-10FC-4162-9923-7B812E7DB352}">
-  <dimension ref="A1:D65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <f>IF(C2="c",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">IF(C3="c",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f>IF(C18="a",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D34" si="1">IF(C19="a",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>13</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>16</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f>IF(C34="b",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ref="D35:D50" si="2">IF(C35="b",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>7</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>12</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <f>IF(C50="c",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ref="D51:D65" si="3">IF(C51="c",1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>5</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>6</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>7</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>8</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>9</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>10</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>11</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>12</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>13</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>14</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>15</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>16</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D65">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static/assessment-results.xlsx
+++ b/static/assessment-results.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8ECED2-3717-4E17-8771-A944A65FD74D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4CBA6B-24F1-45C8-A55B-B9621D681191}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" activeTab="1" xr2:uid="{13FE1660-FF3F-4AAD-AD17-F58810B5493C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{13FE1660-FF3F-4AAD-AD17-F58810B5493C}"/>
   </bookViews>
   <sheets>
-    <sheet name="qs" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="responses" sheetId="1" r:id="rId3"/>
-    <sheet name="scores" sheetId="4" r:id="rId4"/>
+    <sheet name="responses - la" sheetId="7" r:id="rId1"/>
+    <sheet name="qs" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="responses" sheetId="1" r:id="rId4"/>
+    <sheet name="scores" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="24">
   <si>
     <t>question</t>
   </si>
@@ -116,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -154,7 +156,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4118,7 +4120,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FDADDD3-E0A2-40D8-BD0B-937A4185D9C9}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FDADDD3-E0A2-40D8-BD0B-937A4185D9C9}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4215,7 +4217,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F2085C4-EB59-4978-A478-5165FFB6D1A1}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F2085C4-EB59-4978-A478-5165FFB6D1A1}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -4756,6 +4758,2081 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9857842E-A391-4466-B7DE-A67FA43B9491}">
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65:D133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF(E2="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>IF(C3="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF(E3="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>IF(C4="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>IF(E4="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>IF(C5="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>IF(E5="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>IF(C6="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>IF(E6="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>IF(C7="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>IF(E7="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>IF(C8="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>IF(E8="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>IF(C9="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>IF(E9="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>IF(C10="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>IF(E10="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>IF(C11="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>IF(E11="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>IF(C12="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>IF(E12="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>IF(C13="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>IF(E13="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f>IF(C14="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>IF(E14="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>IF(C15="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>IF(E15="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f>IF(C16="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>IF(E16="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>IF(C17="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>IF(E17="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f>IF(C18="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>IF(E18="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f>IF(C19="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>IF(E19="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>IF(C20="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>IF(E20="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>IF(C21="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>IF(E21="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f>IF(C22="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>IF(E22="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f>IF(C23="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>IF(E23="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <f>IF(C24="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>IF(E24="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f>IF(C25="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f>IF(E25="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f>IF(C26="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>IF(E26="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <f>IF(C27="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>IF(E27="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <f>IF(C28="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>IF(E28="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f>IF(C29="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>IF(E29="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f>IF(C30="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>IF(E30="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>IF(C31="a",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>IF(E31="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <f>IF(C32="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>IF(E32="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f>IF(C33="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>IF(E33="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f>IF(C34="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>IF(E34="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <f>IF(C35="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>IF(E35="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f>IF(C36="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>IF(E36="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f>IF(C37="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f>IF(E37="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>IF(C38="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f>IF(E38="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <f>IF(C39="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>IF(E39="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f>IF(C40="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>IF(E40="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f>IF(C41="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f>IF(E41="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f>IF(C42="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f>IF(E42="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <f>IF(C43="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>IF(E43="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <f>IF(C44="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>IF(E44="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <f>IF(C45="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f>IF(E45="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <f>IF(C46="c",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>IF(E46="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <f>IF(C47="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>IF(E47="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <f>IF(C48="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>IF(E48="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <f>IF(C49="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f>IF(E49="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <f>IF(C50="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f>IF(E50="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <f>IF(C51="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>IF(E51="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f>IF(C52="b",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f>IF(E52="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f>IF(C53="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f>IF(E53="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <f>IF(C54="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f>IF(E54="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <f>IF(C55="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>IF(E55="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <f>IF(C56="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>IF(E56="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <f>IF(C57="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f>IF(E57="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f>IF(C58="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f>IF(E58="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <f>IF(C59="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>IF(E59="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <f>IF(C60="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>IF(E60="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <f>IF(C61="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f>IF(E61="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <f>IF(C62="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f>IF(E62="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <f>IF(C63="a",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>IF(E63="a",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <f>IF(C64="b",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>IF(E64="b",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <f>IF(C65="c",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f>IF(E65="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D129" si="0">IF(C66="c",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ref="D130:D133" si="1">IF(C130="c",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+    <sortCondition ref="A2:A65"/>
+    <sortCondition ref="B2:B65"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6282C17B-192D-4BC5-BC5A-5394C5306C3B}">
   <dimension ref="A3:C9"/>
   <sheetViews>
@@ -4851,11 +6928,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D617A9D1-57A2-4464-A51A-7BE358750B24}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -5162,12 +7239,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BAC29A-10FC-4162-9923-7B812E7DB352}">
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5206,7 +7283,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f>IF(C2="c",1,0)</f>
+        <f t="shared" ref="D2:D17" si="0">IF(C2="c",1,0)</f>
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -5228,14 +7305,14 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>IF(C3="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="0">IF(E3="c",1,0)</f>
+        <f t="shared" ref="F3:F17" si="1">IF(E3="c",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5250,14 +7327,14 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f>IF(C4="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5272,14 +7349,14 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <f>IF(C5="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5294,14 +7371,14 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f>IF(C6="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5316,14 +7393,14 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>IF(C7="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5338,14 +7415,14 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <f>IF(C8="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5360,14 +7437,14 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <f>IF(C9="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5382,14 +7459,14 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <f>IF(C10="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5404,14 +7481,14 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <f>IF(C11="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5426,14 +7503,14 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <f>IF(C12="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5448,14 +7525,14 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <f>IF(C13="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5470,14 +7547,14 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <f>IF(C14="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5492,14 +7569,14 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <f>IF(C15="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5514,14 +7591,14 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <f>IF(C16="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5536,14 +7613,14 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <f>IF(C17="c",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5558,7 +7635,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <f>IF(C18="a",1,0)</f>
+        <f t="shared" ref="D18:D33" si="2">IF(C18="a",1,0)</f>
         <v>0</v>
       </c>
       <c r="E18" t="s">
@@ -5580,14 +7657,14 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <f>IF(C19="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F33" si="1">IF(E19="a",1,0)</f>
+        <f t="shared" ref="F19:F33" si="3">IF(E19="a",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5602,14 +7679,14 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <f>IF(C20="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5624,14 +7701,14 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <f>IF(C21="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5646,14 +7723,14 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f>IF(C22="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5668,14 +7745,14 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <f>IF(C23="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5690,14 +7767,14 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <f>IF(C24="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5712,14 +7789,14 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <f>IF(C25="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5734,14 +7811,14 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <f>IF(C26="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5756,14 +7833,14 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <f>IF(C27="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5778,14 +7855,14 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <f>IF(C28="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5800,14 +7877,14 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <f>IF(C29="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5822,14 +7899,14 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <f>IF(C30="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5844,14 +7921,14 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f>IF(C31="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5866,14 +7943,14 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <f>IF(C32="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5888,14 +7965,14 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <f>IF(C33="a",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5910,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <f>IF(C34="b",1,0)</f>
+        <f t="shared" ref="D34:D49" si="4">IF(C34="b",1,0)</f>
         <v>0</v>
       </c>
       <c r="E34" t="s">
@@ -5932,14 +8009,14 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <f>IF(C35="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F49" si="2">IF(E35="b",1,0)</f>
+        <f t="shared" ref="F35:F49" si="5">IF(E35="b",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5954,14 +8031,14 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <f>IF(C36="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5976,14 +8053,14 @@
         <v>5</v>
       </c>
       <c r="D37">
-        <f>IF(C37="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5998,14 +8075,14 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <f>IF(C38="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6020,14 +8097,14 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <f>IF(C39="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6042,14 +8119,14 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <f>IF(C40="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6064,14 +8141,14 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <f>IF(C41="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6086,14 +8163,14 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f>IF(C42="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6108,14 +8185,14 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <f>IF(C43="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6130,14 +8207,14 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <f>IF(C44="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6152,14 +8229,14 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <f>IF(C45="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6174,14 +8251,14 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <f>IF(C46="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6196,14 +8273,14 @@
         <v>6</v>
       </c>
       <c r="D47">
-        <f>IF(C47="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6218,14 +8295,14 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <f>IF(C48="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6240,14 +8317,14 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <f>IF(C49="b",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6262,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <f>IF(C50="c",1,0)</f>
+        <f t="shared" ref="D50:D65" si="6">IF(C50="c",1,0)</f>
         <v>0</v>
       </c>
       <c r="E50" t="s">
@@ -6284,14 +8361,14 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <f>IF(C51="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>2</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:F65" si="3">IF(E51="c",1,0)</f>
+        <f t="shared" ref="F51:F65" si="7">IF(E51="c",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6306,14 +8383,14 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <f>IF(C52="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6328,14 +8405,14 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <f>IF(C53="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6350,14 +8427,14 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <f>IF(C54="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6372,14 +8449,14 @@
         <v>3</v>
       </c>
       <c r="D55">
-        <f>IF(C55="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>1</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6394,14 +8471,14 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <f>IF(C56="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6416,14 +8493,14 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <f>IF(C57="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6438,14 +8515,14 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <f>IF(C58="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6460,14 +8537,14 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <f>IF(C59="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6482,14 +8559,14 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <f>IF(C60="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6504,14 +8581,14 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <f>IF(C61="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6526,14 +8603,14 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <f>IF(C62="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6548,14 +8625,14 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <f>IF(C63="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6570,14 +8647,14 @@
         <v>5</v>
       </c>
       <c r="D64">
-        <f>IF(C64="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>2</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6592,26 +8669,26 @@
         <v>2</v>
       </c>
       <c r="D65">
-        <f>IF(C65="c",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F66">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E57421-6A88-47D8-AEAF-9CD0E08B5C12}">
   <dimension ref="A3:I22"/>
   <sheetViews>

--- a/static/assessment-results.xlsx
+++ b/static/assessment-results.xlsx
@@ -8,21 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\projects\ssa-200\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4CBA6B-24F1-45C8-A55B-B9621D681191}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556BCFB7-3375-4341-93A1-382C4645553C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" xr2:uid="{13FE1660-FF3F-4AAD-AD17-F58810B5493C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8424" activeTab="3" xr2:uid="{13FE1660-FF3F-4AAD-AD17-F58810B5493C}"/>
   </bookViews>
   <sheets>
-    <sheet name="responses - la" sheetId="7" r:id="rId1"/>
-    <sheet name="qs" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
-    <sheet name="responses" sheetId="1" r:id="rId4"/>
-    <sheet name="scores" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
+    <sheet name="responses - la" sheetId="7" r:id="rId2"/>
+    <sheet name="summary - s" sheetId="10" r:id="rId3"/>
+    <sheet name="summary - q" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId5"/>
+    <sheet name="qs" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
+    <sheet name="responses" sheetId="1" r:id="rId8"/>
+    <sheet name="scores" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="5" r:id="rId12"/>
+    <pivotCache cacheId="11" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="29">
   <si>
     <t>question</t>
   </si>
@@ -112,6 +118,21 @@
   <si>
     <t>score</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b </t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
 </sst>
 </file>
 
@@ -175,6 +196,834 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scores pre vs post</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary - s'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'summary - s'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'summary - s'!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAEB-4D5B-9B30-001627D0BA1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary - s'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Post</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'summary - s'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'summary - s'!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AAEB-4D5B-9B30-001627D0BA1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441975056"/>
+        <c:axId val="441976040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441975056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441976040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441976040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441975056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[assessment-results.xlsx]summary - q!PivotTable3</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary - q'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of correct-pre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'summary - q'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'summary - q'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.78787878787878785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24242424242424243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21212121212121213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84848484848484851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3B3-46AC-B2AD-A54D9DA39226}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary - q'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of correct-post</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'summary - q'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'summary - q'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45161290322580644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29032258064516131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90322580645161288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3B3-46AC-B2AD-A54D9DA39226}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="442093480"/>
+        <c:axId val="442088560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="442093480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442088560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442088560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442093480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -598,7 +1447,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1008,7 +1857,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1390,6 +2239,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2938,7 +3867,1095 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>310515</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>26669</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA058F1-E3E0-4EEA-9797-A522D0D62442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>914401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293371</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D06883-85BA-4BE3-85AE-F23D3A3A6449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2979,7 +4996,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3020,7 +5037,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3177,6 +5194,91 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anna" refreshedDate="43447.595110185182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="133" xr:uid="{2A2C04BE-5601-4082-A993-6A9CF7D1005C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:D1048576" sheet="responses - la"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="question" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="answer-pre" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="correct-pre" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
+        <n v="1"/>
+        <n v="0"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anna" refreshedDate="43447.700817824072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="133" xr:uid="{F6D4E76F-D545-4CA4-8684-E3FC70AF223C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D1048576" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="person" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="16" count="17">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="question" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="correct-pre" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="correct-post" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="66">
   <r>
@@ -4119,7 +6221,1763 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="133">
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="NA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="NA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="NA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="a"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="a"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="NA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="NA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="NA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="NA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="a"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="b"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="c"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="NA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="d"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="a"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="133">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{266C11B0-4EBE-4B39-96FC-1AE94C395C27}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of correct-pre" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F49E2B92-6A00-4BED-8794-A534D0039662}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of correct-pre" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of correct-post" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CCA7E94-92B1-47E8-94E1-22BB2D042255}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of correct-pre" fld="2" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Average of correct-post" fld="3" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FDADDD3-E0A2-40D8-BD0B-937A4185D9C9}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4216,7 +8074,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F2085C4-EB59-4978-A478-5165FFB6D1A1}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4334,7 +8192,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{643F778C-463A-4B08-A25D-887543112720}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
@@ -4758,11 +8616,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75EB0D0-F259-4A09-9487-DD6FB9F76DEE}">
+  <dimension ref="A3:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" activeCellId="1" sqref="A5:A8 E5:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>0.24242424242424243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>0.21212121212121213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>0.84848484848484851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9857842E-A391-4466-B7DE-A67FA43B9491}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:D133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4805,6 +8794,9 @@
         <f>IF(C2="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
       <c r="F2">
         <f>IF(E2="c",1,0)</f>
         <v>0</v>
@@ -4824,6 +8816,9 @@
         <f>IF(C3="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
       <c r="F3">
         <f>IF(E3="a",1,0)</f>
         <v>0</v>
@@ -4843,6 +8838,9 @@
         <f>IF(C4="b",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4">
         <f>IF(E4="b",1,0)</f>
         <v>0</v>
@@ -4862,9 +8860,12 @@
         <f>IF(C5="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
       <c r="F5">
         <f>IF(E5="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4881,9 +8882,12 @@
         <f>IF(C6="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
       <c r="F6">
         <f>IF(E6="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4900,6 +8904,9 @@
         <f>IF(C7="a",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
       <c r="F7">
         <f>IF(E7="a",1,0)</f>
         <v>0</v>
@@ -4919,6 +8926,9 @@
         <f>IF(C8="b",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
       <c r="F8">
         <f>IF(E8="b",1,0)</f>
         <v>0</v>
@@ -4938,9 +8948,12 @@
         <f>IF(C9="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
       <c r="F9">
         <f>IF(E9="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4957,9 +8970,12 @@
         <f>IF(C10="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
       <c r="F10">
         <f>IF(E10="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4976,6 +8992,9 @@
         <f>IF(C11="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
       <c r="F11">
         <f>IF(E11="a",1,0)</f>
         <v>0</v>
@@ -4995,9 +9014,12 @@
         <f>IF(C12="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
       <c r="F12">
         <f>IF(E12="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5014,9 +9036,12 @@
         <f>IF(C13="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
       <c r="F13">
         <f>IF(E13="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5033,9 +9058,12 @@
         <f>IF(C14="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
       <c r="F14">
         <f>IF(E14="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5052,9 +9080,12 @@
         <f>IF(C15="a",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
       <c r="F15">
         <f>IF(E15="a",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5071,6 +9102,9 @@
         <f>IF(C16="b",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
       <c r="F16">
         <f>IF(E16="b",1,0)</f>
         <v>0</v>
@@ -5090,9 +9124,12 @@
         <f>IF(C17="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
       <c r="F17">
         <f>IF(E17="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5109,9 +9146,12 @@
         <f>IF(C18="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
       <c r="F18">
         <f>IF(E18="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5128,9 +9168,12 @@
         <f>IF(C19="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
       <c r="F19">
         <f>IF(E19="a",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5147,6 +9190,9 @@
         <f>IF(C20="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
       <c r="F20">
         <f>IF(E20="b",1,0)</f>
         <v>0</v>
@@ -5166,9 +9212,12 @@
         <f>IF(C21="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
       <c r="F21">
         <f>IF(E21="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5185,9 +9234,12 @@
         <f>IF(C22="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
       <c r="F22">
         <f>IF(E22="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5204,9 +9256,12 @@
         <f>IF(C23="a",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
       <c r="F23">
         <f>IF(E23="a",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,9 +9278,12 @@
         <f>IF(C24="b",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
       <c r="F24">
         <f>IF(E24="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -5242,9 +9300,12 @@
         <f>IF(C25="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
       <c r="F25">
         <f>IF(E25="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5261,9 +9322,12 @@
         <f>IF(C26="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
       <c r="F26">
         <f>IF(E26="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5280,6 +9344,9 @@
         <f>IF(C27="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
       <c r="F27">
         <f>IF(E27="a",1,0)</f>
         <v>0</v>
@@ -5299,9 +9366,12 @@
         <f>IF(C28="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
       <c r="F28">
         <f>IF(E28="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5318,9 +9388,12 @@
         <f>IF(C29="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
       <c r="F29">
         <f>IF(E29="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5337,9 +9410,12 @@
         <f>IF(C30="c",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
       <c r="F30">
         <f>IF(E30="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5356,9 +9432,12 @@
         <f>IF(C31="a",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
       <c r="F31">
         <f>IF(E31="a",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5375,6 +9454,9 @@
         <f>IF(C32="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
       <c r="F32">
         <f>IF(E32="b",1,0)</f>
         <v>0</v>
@@ -5394,9 +9476,12 @@
         <f>IF(C33="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
       <c r="F33">
         <f>IF(E33="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5413,9 +9498,12 @@
         <f>IF(C34="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
       <c r="F34">
         <f>IF(E34="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5432,9 +9520,12 @@
         <f>IF(C35="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
       <c r="F35">
         <f>IF(E35="a",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5451,9 +9542,12 @@
         <f>IF(C36="b",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
       <c r="F36">
         <f>IF(E36="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5470,9 +9564,12 @@
         <f>IF(C37="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
       <c r="F37">
         <f>IF(E37="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5489,9 +9586,12 @@
         <f>IF(C38="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
       <c r="F38">
         <f>IF(E38="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5508,9 +9608,12 @@
         <f>IF(C39="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
       <c r="F39">
         <f>IF(E39="a",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5527,9 +9630,12 @@
         <f>IF(C40="b",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
       <c r="F40">
         <f>IF(E40="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5546,9 +9652,12 @@
         <f>IF(C41="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
       <c r="F41">
         <f>IF(E41="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5565,9 +9674,12 @@
         <f>IF(C42="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
       <c r="F42">
         <f>IF(E42="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5584,6 +9696,9 @@
         <f>IF(C43="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
       <c r="F43">
         <f>IF(E43="a",1,0)</f>
         <v>0</v>
@@ -5603,6 +9718,9 @@
         <f>IF(C44="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
       <c r="F44">
         <f>IF(E44="b",1,0)</f>
         <v>0</v>
@@ -5622,9 +9740,12 @@
         <f>IF(C45="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
       <c r="F45">
         <f>IF(E45="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5641,9 +9762,12 @@
         <f>IF(C46="c",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
       <c r="F46">
         <f>IF(E46="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5660,6 +9784,9 @@
         <f>IF(C47="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
       <c r="F47">
         <f>IF(E47="a",1,0)</f>
         <v>0</v>
@@ -5679,9 +9806,12 @@
         <f>IF(C48="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
       <c r="F48">
         <f>IF(E48="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5698,6 +9828,9 @@
         <f>IF(C49="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
       <c r="F49">
         <f>IF(E49="c",1,0)</f>
         <v>0</v>
@@ -5717,9 +9850,12 @@
         <f>IF(C50="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
       <c r="F50">
         <f>IF(E50="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5736,6 +9872,9 @@
         <f>IF(C51="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
       <c r="F51">
         <f>IF(E51="a",1,0)</f>
         <v>0</v>
@@ -5755,9 +9894,12 @@
         <f>IF(C52="b",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
       <c r="F52">
         <f>IF(E52="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5774,9 +9916,12 @@
         <f>IF(C53="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
       <c r="F53">
         <f>IF(E53="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5793,9 +9938,12 @@
         <f>IF(C54="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
       <c r="F54">
         <f>IF(E54="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5812,6 +9960,9 @@
         <f>IF(C55="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
       <c r="F55">
         <f>IF(E55="a",1,0)</f>
         <v>0</v>
@@ -5831,9 +9982,12 @@
         <f>IF(C56="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
       <c r="F56">
         <f>IF(E56="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5850,9 +10004,12 @@
         <f>IF(C57="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
       <c r="F57">
         <f>IF(E57="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5869,9 +10026,12 @@
         <f>IF(C58="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
       <c r="F58">
         <f>IF(E58="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5888,6 +10048,9 @@
         <f>IF(C59="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
       <c r="F59">
         <f>IF(E59="a",1,0)</f>
         <v>0</v>
@@ -5907,9 +10070,12 @@
         <f>IF(C60="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
       <c r="F60">
         <f>IF(E60="b",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5926,9 +10092,12 @@
         <f>IF(C61="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
       <c r="F61">
         <f>IF(E61="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5945,9 +10114,12 @@
         <f>IF(C62="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
       <c r="F62">
         <f>IF(E62="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5964,9 +10136,12 @@
         <f>IF(C63="a",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
       <c r="F63">
         <f>IF(E63="a",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5983,6 +10158,9 @@
         <f>IF(C64="b",1,0)</f>
         <v>0</v>
       </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
       <c r="F64">
         <f>IF(E64="b",1,0)</f>
         <v>0</v>
@@ -6002,9 +10180,12 @@
         <f>IF(C65="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
       <c r="F65">
         <f>IF(E65="c",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -6018,6 +10199,13 @@
         <f t="shared" ref="D66:D129" si="0">IF(C66="c",1,0)</f>
         <v>1</v>
       </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F129" si="1">IF(E66="c",1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67">
@@ -6030,6 +10218,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68">
@@ -6040,6 +10235,13 @@
       </c>
       <c r="D68">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6054,6 +10256,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B70">
@@ -6066,6 +10275,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B71">
@@ -6078,6 +10294,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B72">
@@ -6088,6 +10311,13 @@
       </c>
       <c r="D72">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6102,6 +10332,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74">
@@ -6114,6 +10351,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75">
@@ -6126,6 +10370,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76">
@@ -6136,6 +10387,13 @@
       </c>
       <c r="D76">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6150,6 +10408,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B78">
@@ -6162,6 +10427,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B79">
@@ -6174,6 +10446,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80">
@@ -6186,8 +10465,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>4</v>
       </c>
@@ -6198,8 +10484,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>1</v>
       </c>
@@ -6210,8 +10503,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>2</v>
       </c>
@@ -6222,8 +10522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>3</v>
       </c>
@@ -6234,8 +10541,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>4</v>
       </c>
@@ -6246,8 +10560,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>1</v>
       </c>
@@ -6258,8 +10579,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>2</v>
       </c>
@@ -6270,8 +10598,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>3</v>
       </c>
@@ -6282,8 +10617,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>4</v>
       </c>
@@ -6294,8 +10636,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>1</v>
       </c>
@@ -6306,8 +10655,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>2</v>
       </c>
@@ -6318,8 +10674,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>3</v>
       </c>
@@ -6330,8 +10693,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>4</v>
       </c>
@@ -6342,8 +10712,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>1</v>
       </c>
@@ -6354,8 +10731,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>2</v>
       </c>
@@ -6366,8 +10750,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>3</v>
       </c>
@@ -6378,8 +10769,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>4</v>
       </c>
@@ -6390,8 +10788,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>1</v>
       </c>
@@ -6402,8 +10807,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>2</v>
       </c>
@@ -6414,8 +10826,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>3</v>
       </c>
@@ -6426,8 +10845,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>4</v>
       </c>
@@ -6438,8 +10864,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>1</v>
       </c>
@@ -6450,8 +10883,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>2</v>
       </c>
@@ -6462,8 +10902,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>3</v>
       </c>
@@ -6474,8 +10921,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>4</v>
       </c>
@@ -6486,8 +10940,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>1</v>
       </c>
@@ -6498,8 +10959,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>2</v>
       </c>
@@ -6510,8 +10978,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>3</v>
       </c>
@@ -6522,8 +10997,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>4</v>
       </c>
@@ -6534,8 +11016,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>1</v>
       </c>
@@ -6546,8 +11035,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>2</v>
       </c>
@@ -6558,8 +11054,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>3</v>
       </c>
@@ -6570,8 +11073,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>4</v>
       </c>
@@ -6582,8 +11092,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>1</v>
       </c>
@@ -6594,8 +11111,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>2</v>
       </c>
@@ -6606,8 +11130,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>3</v>
       </c>
@@ -6618,8 +11149,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>4</v>
       </c>
@@ -6630,8 +11168,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>1</v>
       </c>
@@ -6642,8 +11187,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>2</v>
       </c>
@@ -6654,8 +11206,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>3</v>
       </c>
@@ -6666,8 +11225,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>4</v>
       </c>
@@ -6678,8 +11244,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>1</v>
       </c>
@@ -6690,8 +11263,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>2</v>
       </c>
@@ -6702,8 +11282,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>3</v>
       </c>
@@ -6714,8 +11301,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>4</v>
       </c>
@@ -6726,8 +11320,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>1</v>
       </c>
@@ -6739,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>2</v>
       </c>
@@ -6751,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>3</v>
       </c>
@@ -6783,7 +11384,7 @@
         <v>5</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D133" si="1">IF(C130="c",1,0)</f>
+        <f t="shared" ref="D130:D133" si="2">IF(C130="c",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6795,7 +11396,7 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6807,7 +11408,7 @@
         <v>5</v>
       </c>
       <c r="D132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6819,7 +11420,7 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6832,7 +11433,2049 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55910FC-EE96-428B-ACC3-F6AA4A75A62A}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF(B4:B19, I2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="0">COUNTIF(B5:B20, I3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K3:K6" si="1">COUNTIF(C6:C22, I4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.65322580645161288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62270DAD-E32F-4E28-B815-B040F5EE6227}">
+  <dimension ref="A3:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.45161290322580644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.29032258064516131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.90322580645161288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.65322580645161288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705DB9AD-B76E-4D62-9AA6-E798C4D5E8E9}">
+  <dimension ref="A1:D133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6282C17B-192D-4BC5-BC5A-5394C5306C3B}">
   <dimension ref="A3:C9"/>
   <sheetViews>
@@ -6928,12 +13571,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D617A9D1-57A2-4464-A51A-7BE358750B24}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7239,7 +13882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BAC29A-10FC-4162-9923-7B812E7DB352}">
   <dimension ref="A1:F65"/>
   <sheetViews>
@@ -8688,9 +15331,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E57421-6A88-47D8-AEAF-9CD0E08B5C12}">
-  <dimension ref="A3:I22"/>
+  <dimension ref="A3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
@@ -8949,7 +15592,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -8964,7 +15607,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -8979,7 +15622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -8992,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -9007,7 +15650,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -9016,7 +15659,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -9029,6 +15672,11 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3">
         <v>0.515625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
